--- a/数据整理/stocks/港股/06886-华泰证券.xlsx
+++ b/数据整理/stocks/港股/06886-华泰证券.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,97 +22,157 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>007493</t>
+  </si>
+  <si>
+    <t>007494</t>
+  </si>
+  <si>
+    <t>008294</t>
+  </si>
+  <si>
+    <t>010141</t>
+  </si>
+  <si>
     <t>513090</t>
   </si>
   <si>
-    <t>008294</t>
+    <t>007880</t>
+  </si>
+  <si>
+    <t>010142</t>
   </si>
   <si>
     <t>008295</t>
   </si>
   <si>
-    <t>010141</t>
-  </si>
-  <si>
-    <t>010142</t>
-  </si>
-  <si>
-    <t>007493</t>
-  </si>
-  <si>
-    <t>007494</t>
-  </si>
-  <si>
-    <t>007880</t>
-  </si>
-  <si>
     <t>007881</t>
   </si>
   <si>
+    <t>朱雀产业臻选混合A</t>
+  </si>
+  <si>
+    <t>朱雀产业臻选混合C</t>
+  </si>
+  <si>
+    <t>朱雀企业优胜股票A</t>
+  </si>
+  <si>
+    <t>朱雀企业优选股票A</t>
+  </si>
+  <si>
     <t>易方达中证香港证券投资主题ETF</t>
   </si>
   <si>
-    <t>朱雀企业优胜股票A</t>
+    <t>朱雀产业智选混合A</t>
+  </si>
+  <si>
+    <t>朱雀企业优选股票C</t>
   </si>
   <si>
     <t>朱雀企业优胜股票C</t>
   </si>
   <si>
-    <t>朱雀企业优选股票A</t>
-  </si>
-  <si>
-    <t>朱雀企业优选股票C</t>
-  </si>
-  <si>
-    <t>朱雀产业臻选混合A</t>
-  </si>
-  <si>
-    <t>朱雀产业臻选混合C</t>
-  </si>
-  <si>
-    <t>朱雀产业智选混合A</t>
-  </si>
-  <si>
     <t>朱雀产业智选混合C</t>
   </si>
   <si>
+    <t>49.86</t>
+  </si>
+  <si>
+    <t>23.94</t>
+  </si>
+  <si>
+    <t>14.57</t>
+  </si>
+  <si>
+    <t>24.82</t>
+  </si>
+  <si>
+    <t>9.36</t>
+  </si>
+  <si>
+    <t>7.78</t>
+  </si>
+  <si>
+    <t>9.76</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>79.51</t>
+  </si>
+  <si>
+    <t>90.22</t>
+  </si>
+  <si>
+    <t>82.58</t>
+  </si>
+  <si>
     <t>98.18</t>
   </si>
   <si>
-    <t>90.22</t>
-  </si>
-  <si>
-    <t>82.58</t>
-  </si>
-  <si>
-    <t>79.51</t>
-  </si>
-  <si>
     <t>77.63</t>
   </si>
   <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>7.46</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
     <t>8.42</t>
   </si>
   <si>
-    <t>7.46</t>
-  </si>
-  <si>
-    <t>3.96</t>
-  </si>
-  <si>
-    <t>5.18</t>
-  </si>
-  <si>
     <t>6.88</t>
+  </si>
+  <si>
+    <t>2.5827</t>
+  </si>
+  <si>
+    <t>1.2401</t>
+  </si>
+  <si>
+    <t>1.0869</t>
+  </si>
+  <si>
+    <t>0.9829</t>
+  </si>
+  <si>
+    <t>0.7881</t>
+  </si>
+  <si>
+    <t>0.5353</t>
+  </si>
+  <si>
+    <t>0.3865</t>
+  </si>
+  <si>
+    <t>0.1962</t>
+  </si>
+  <si>
+    <t>0.1204</t>
   </si>
 </sst>
 </file>
@@ -470,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,184 +552,244 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06886-华泰证券.xlsx
+++ b/数据整理/stocks/港股/06886-华泰证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7265</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06886-华泰证券.xlsx
+++ b/数据整理/stocks/港股/06886-华泰证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06886-华泰证券.xlsx
+++ b/数据整理/stocks/港股/06886-华泰证券.xlsx
@@ -1055,12 +1055,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/06886-华泰证券.xlsx
+++ b/数据整理/stocks/港股/06886-华泰证券.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1167,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>7.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06886-华泰证券.xlsx
+++ b/数据整理/stocks/港股/06886-华泰证券.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,395 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007493</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5827</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007494</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2401</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008294</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0869</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010141</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9829</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7881</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007880</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>77.63</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5353</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3865</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1962</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>77.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
+      <c r="D5" t="n">
+        <v>7.92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -852,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -913,26 +615,140 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>95.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8061</t>
+          <t>1.1952</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,7 +877,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1101,140 +917,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1952</t>
+          <t>0.8061</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002860</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>38.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1248,96 +950,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2401</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0869</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9829</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5353</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.92</v>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>